--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8409844-154A-4E5D-8443-EF1C5B4F59B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970A0674-F118-4CB7-B36B-F6F8515A825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,28 @@
   </si>
   <si>
     <t>relic18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic19</t>
+  </si>
+  <si>
+    <t>relic20</t>
+  </si>
+  <si>
+    <t>relic21</t>
+  </si>
+  <si>
+    <t>천구의 보주 1단계</t>
+  </si>
+  <si>
+    <t>천구의 보주 2단계</t>
+  </si>
+  <si>
+    <t>천구의 보주 3단계</t>
+  </si>
+  <si>
+    <t>ChunguRelic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,12 +700,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1687,6 +1709,156 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="2">
+        <v>61</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="F21" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>61</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5.0000000000000002E-11</v>
+      </c>
+      <c r="F22" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7.9999999999999995E-11</v>
+      </c>
+      <c r="F23" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="1">
+        <v>3</v>
+      </c>
+      <c r="O23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970A0674-F118-4CB7-B36B-F6F8515A825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF42458-692C-4D24-91C4-299E5DC1EB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,18 @@
   </si>
   <si>
     <t>ChunguRelic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인 전설검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,12 +712,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1859,6 +1871,56 @@
         <v>2</v>
       </c>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>88</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.5E-10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="1">
+        <v>200</v>
+      </c>
+      <c r="O24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF42458-692C-4D24-91C4-299E5DC1EB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56417ED0-2D13-43FA-BEAB-F1DEEDF38C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t>용인 전설검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁 전설검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,12 +724,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1921,6 +1933,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>101</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="F25" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="1">
+        <v>200</v>
+      </c>
+      <c r="O25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56417ED0-2D13-43FA-BEAB-F1DEEDF38C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B045AC-CE58-42F4-8A84-B2019935B7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28170" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,18 @@
   </si>
   <si>
     <t>DPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락 전설검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,9 +440,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -468,7 +480,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -574,7 +586,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -716,7 +728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,12 +736,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1983,6 +1995,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>110</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.5E-11</v>
+      </c>
+      <c r="F26" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" s="1">
+        <v>100</v>
+      </c>
+      <c r="O26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/StageRelic.xlsx
+++ b/Assets/06.Table/StageRelic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B045AC-CE58-42F4-8A84-B2019935B7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0562DA82-9E4D-4088-B828-D69147C8922A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28170" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageRelic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,18 @@
   </si>
   <si>
     <t>MRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도 전설검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,12 +748,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2045,6 +2057,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>121</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="F27" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" s="1">
+        <v>100</v>
+      </c>
+      <c r="O27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
